--- a/DIAGRAMS/Use Case Full Description.xlsx
+++ b/DIAGRAMS/Use Case Full Description.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Documents\SCHOOL\SOFTDEV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Documents\GitHub\SOFTDEV-QUALITY2\DIAGRAMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="199">
   <si>
     <t>Use Case</t>
   </si>
@@ -588,6 +588,39 @@
   </si>
   <si>
     <t xml:space="preserve">1.1 System will get data from the database </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Regional admin will request transportation </t>
+  </si>
+  <si>
+    <t>1.1 System will get vehicle information at the database</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2 System will check what vehicle is the nearest </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3 System will get the fastest route to the location </t>
+  </si>
+  <si>
+    <t xml:space="preserve">National admin request supplies that are available at the inventory </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. National admin request supplies to </t>
+  </si>
+  <si>
+    <t>1.1 Inventory system will check if supply is availablr or not</t>
+  </si>
+  <si>
+    <t>1.2 If supply not available, system will notify supplier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">that it is needed </t>
+  </si>
+  <si>
+    <t>City mayor, External user</t>
+  </si>
+  <si>
+    <t>1.2 System will get the fastest route going to the location</t>
   </si>
 </sst>
 </file>
@@ -735,15 +768,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -762,10 +787,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1083,763 +1116,763 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D359"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView tabSelected="1" topLeftCell="A262" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F226" sqref="F226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.453125" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="64.1796875" style="6" customWidth="1"/>
-    <col min="4" max="16384" width="8.7265625" style="6"/>
+    <col min="1" max="1" width="22" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="64.1796875" style="4" customWidth="1"/>
+    <col min="4" max="16384" width="8.7265625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="5"/>
+      <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="5"/>
+      <c r="C2" s="13"/>
     </row>
     <row r="3" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="8"/>
+      <c r="C3" s="15"/>
     </row>
     <row r="4" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="5"/>
+      <c r="C4" s="13"/>
     </row>
     <row r="5" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="5"/>
+      <c r="C5" s="13"/>
     </row>
     <row r="6" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="13"/>
     </row>
     <row r="7" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="5"/>
+      <c r="C7" s="13"/>
     </row>
     <row r="8" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="13"/>
     </row>
     <row r="9" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="5"/>
+      <c r="C9" s="13"/>
     </row>
     <row r="10" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="9" t="s">
+      <c r="B10" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="3"/>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="7" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="3"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="13"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="9"/>
     </row>
     <row r="13" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="2"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="14"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="10"/>
     </row>
     <row r="14" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="13"/>
     </row>
     <row r="15" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
     </row>
     <row r="16" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="5"/>
+      <c r="C16" s="13"/>
     </row>
     <row r="17" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="5"/>
+      <c r="C17" s="13"/>
     </row>
     <row r="18" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="8"/>
+      <c r="C18" s="15"/>
     </row>
     <row r="19" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="C19" s="5"/>
+      <c r="C19" s="13"/>
     </row>
     <row r="20" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="5"/>
+      <c r="C20" s="13"/>
     </row>
     <row r="21" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="13"/>
     </row>
     <row r="22" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="5"/>
+      <c r="C22" s="13"/>
     </row>
     <row r="23" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="13"/>
     </row>
     <row r="24" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="5"/>
+      <c r="C24" s="13"/>
     </row>
     <row r="25" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" s="9" t="s">
+      <c r="B25" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="3"/>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="7" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="3"/>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="C27" s="13"/>
+      <c r="C27" s="9"/>
     </row>
     <row r="28" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="2"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="14"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="10"/>
     </row>
     <row r="29" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="5"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="13"/>
     </row>
     <row r="30" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="15"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
     </row>
     <row r="31" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="5"/>
+      <c r="C31" s="13"/>
     </row>
     <row r="32" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="5"/>
+      <c r="C32" s="13"/>
     </row>
     <row r="33" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C33" s="8"/>
+      <c r="C33" s="15"/>
     </row>
     <row r="34" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="C34" s="5"/>
+      <c r="C34" s="13"/>
     </row>
     <row r="35" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C35" s="5"/>
+      <c r="C35" s="13"/>
     </row>
     <row r="36" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="C36" s="5"/>
+      <c r="C36" s="13"/>
     </row>
     <row r="37" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="C37" s="5"/>
+      <c r="C37" s="13"/>
     </row>
     <row r="38" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="C38" s="5"/>
+      <c r="C38" s="13"/>
     </row>
     <row r="39" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C39" s="5"/>
+      <c r="C39" s="13"/>
     </row>
     <row r="40" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B40" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C40" s="9" t="s">
+      <c r="B40" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="3"/>
-      <c r="B41" s="10" t="s">
+      <c r="B41" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="C41" s="7" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="3"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="13"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="9"/>
     </row>
     <row r="43" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="2"/>
-      <c r="B43" s="12"/>
-      <c r="C43" s="14"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="10"/>
     </row>
     <row r="44" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B44" s="4"/>
-      <c r="C44" s="5"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="13"/>
     </row>
     <row r="45" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="15"/>
-      <c r="B45" s="15"/>
-      <c r="C45" s="15"/>
+      <c r="A45" s="11"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
     </row>
     <row r="46" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C46" s="5"/>
+      <c r="C46" s="13"/>
     </row>
     <row r="47" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C47" s="5"/>
+      <c r="C47" s="13"/>
     </row>
     <row r="48" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C48" s="8"/>
+      <c r="C48" s="15"/>
     </row>
     <row r="49" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="C49" s="5"/>
+      <c r="C49" s="13"/>
     </row>
     <row r="50" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C50" s="5"/>
+      <c r="C50" s="13"/>
     </row>
     <row r="51" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B51" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="C51" s="5"/>
+      <c r="C51" s="13"/>
     </row>
     <row r="52" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B52" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C52" s="5"/>
+      <c r="C52" s="13"/>
     </row>
     <row r="53" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B53" s="4"/>
-      <c r="C53" s="5"/>
+      <c r="B53" s="12"/>
+      <c r="C53" s="13"/>
     </row>
     <row r="54" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A54" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B54" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C54" s="5"/>
+      <c r="C54" s="13"/>
     </row>
     <row r="55" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A55" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B55" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C55" s="9" t="s">
+      <c r="B55" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C55" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" s="3"/>
-      <c r="B56" s="10" t="s">
+      <c r="B56" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="C56" s="11" t="s">
+      <c r="C56" s="7" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57" s="3"/>
-      <c r="B57" s="12" t="s">
+      <c r="B57" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="C57" s="13"/>
+      <c r="C57" s="9"/>
     </row>
     <row r="58" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A58" s="2"/>
-      <c r="B58" s="12"/>
-      <c r="C58" s="14"/>
+      <c r="B58" s="8"/>
+      <c r="C58" s="10"/>
     </row>
     <row r="59" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A59" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B59" s="4"/>
-      <c r="C59" s="5"/>
+      <c r="B59" s="12"/>
+      <c r="C59" s="13"/>
     </row>
     <row r="60" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="15"/>
-      <c r="B60" s="15"/>
-      <c r="C60" s="15"/>
+      <c r="A60" s="11"/>
+      <c r="B60" s="11"/>
+      <c r="C60" s="11"/>
     </row>
     <row r="61" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B61" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C61" s="5"/>
+      <c r="C61" s="13"/>
     </row>
     <row r="62" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="B62" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C62" s="5"/>
+      <c r="C62" s="13"/>
     </row>
     <row r="63" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B63" s="7" t="s">
+      <c r="B63" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C63" s="8"/>
+      <c r="C63" s="15"/>
     </row>
     <row r="64" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A64" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B64" s="4" t="s">
+      <c r="B64" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="C64" s="5"/>
+      <c r="C64" s="13"/>
     </row>
     <row r="65" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A65" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="B65" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C65" s="5"/>
+      <c r="C65" s="13"/>
     </row>
     <row r="66" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="B66" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C66" s="5"/>
+      <c r="C66" s="13"/>
     </row>
     <row r="67" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A67" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B67" s="4" t="s">
+      <c r="B67" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C67" s="5"/>
+      <c r="C67" s="13"/>
     </row>
     <row r="68" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A68" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B68" s="4"/>
-      <c r="C68" s="5"/>
+      <c r="B68" s="12"/>
+      <c r="C68" s="13"/>
     </row>
     <row r="69" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A69" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B69" s="4" t="s">
+      <c r="B69" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C69" s="5"/>
+      <c r="C69" s="13"/>
     </row>
     <row r="70" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A70" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B70" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C70" s="9" t="s">
+      <c r="B70" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C70" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A71" s="3"/>
-      <c r="B71" s="10" t="s">
+      <c r="B71" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C71" s="11" t="s">
+      <c r="C71" s="7" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A72" s="3"/>
-      <c r="B72" s="12" t="s">
+      <c r="B72" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="C72" s="13" t="s">
+      <c r="C72" s="9" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A73" s="2"/>
-      <c r="B73" s="12"/>
-      <c r="C73" s="14"/>
+      <c r="B73" s="8"/>
+      <c r="C73" s="10"/>
     </row>
     <row r="74" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A74" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B74" s="4"/>
-      <c r="C74" s="5"/>
+      <c r="B74" s="12"/>
+      <c r="C74" s="13"/>
     </row>
     <row r="75" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A75" s="15"/>
-      <c r="B75" s="15"/>
-      <c r="C75" s="15"/>
+      <c r="A75" s="11"/>
+      <c r="B75" s="11"/>
+      <c r="C75" s="11"/>
     </row>
     <row r="76" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A76" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B76" s="4" t="s">
+      <c r="B76" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C76" s="5"/>
+      <c r="C76" s="13"/>
     </row>
     <row r="77" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A77" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B77" s="4" t="s">
+      <c r="B77" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C77" s="5"/>
+      <c r="C77" s="13"/>
     </row>
     <row r="78" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A78" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B78" s="7" t="s">
+      <c r="B78" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C78" s="8"/>
+      <c r="C78" s="15"/>
     </row>
     <row r="79" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B79" s="4" t="s">
+      <c r="B79" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="C79" s="5"/>
+      <c r="C79" s="13"/>
     </row>
     <row r="80" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A80" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B80" s="4" t="s">
+      <c r="B80" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C80" s="5"/>
+      <c r="C80" s="13"/>
     </row>
     <row r="81" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A81" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B81" s="4" t="s">
+      <c r="B81" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C81" s="5"/>
+      <c r="C81" s="13"/>
     </row>
     <row r="82" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A82" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B82" s="4" t="s">
+      <c r="B82" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C82" s="5"/>
+      <c r="C82" s="13"/>
     </row>
     <row r="83" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B83" s="4" t="s">
+      <c r="B83" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="C83" s="5"/>
+      <c r="C83" s="13"/>
     </row>
     <row r="84" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A84" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B84" s="4" t="s">
+      <c r="B84" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C84" s="5"/>
+      <c r="C84" s="13"/>
     </row>
     <row r="85" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A85" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B85" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C85" s="9" t="s">
+      <c r="B85" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C85" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A86" s="3"/>
-      <c r="B86" s="10" t="s">
+      <c r="B86" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="C86" s="11" t="s">
+      <c r="C86" s="7" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A87" s="3"/>
-      <c r="B87" s="12" t="s">
+      <c r="B87" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="C87" s="13"/>
+      <c r="C87" s="9"/>
     </row>
     <row r="88" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A88" s="2"/>
-      <c r="B88" s="12"/>
-      <c r="C88" s="14"/>
+      <c r="B88" s="8"/>
+      <c r="C88" s="10"/>
     </row>
     <row r="89" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A89" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B89" s="4"/>
-      <c r="C89" s="5"/>
+      <c r="B89" s="12"/>
+      <c r="C89" s="13"/>
     </row>
     <row r="90" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A90" s="15"/>
-      <c r="B90" s="15"/>
-      <c r="C90" s="15"/>
+      <c r="A90" s="11"/>
+      <c r="B90" s="11"/>
+      <c r="C90" s="11"/>
     </row>
     <row r="91" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A91" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B91" s="4" t="s">
+      <c r="B91" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C91" s="5"/>
-      <c r="D91" s="6" t="s">
+      <c r="C91" s="13"/>
+      <c r="D91" s="4" t="s">
         <v>137</v>
       </c>
     </row>
@@ -1847,599 +1880,611 @@
       <c r="A92" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B92" s="4" t="s">
+      <c r="B92" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="C92" s="5"/>
+      <c r="C92" s="13"/>
     </row>
     <row r="93" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A93" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B93" s="7" t="s">
+      <c r="B93" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C93" s="8"/>
+      <c r="C93" s="15"/>
     </row>
     <row r="94" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A94" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B94" s="4"/>
-      <c r="C94" s="5"/>
+      <c r="B94" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="C94" s="13"/>
     </row>
     <row r="95" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A95" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B95" s="4" t="s">
+      <c r="B95" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C95" s="5"/>
+      <c r="C95" s="13"/>
     </row>
     <row r="96" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B96" s="4" t="s">
+      <c r="B96" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C96" s="5"/>
+      <c r="C96" s="13"/>
     </row>
     <row r="97" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A97" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B97" s="4" t="s">
+      <c r="B97" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="C97" s="5"/>
+      <c r="C97" s="13"/>
     </row>
     <row r="98" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A98" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B98" s="4"/>
-      <c r="C98" s="5"/>
+      <c r="B98" s="12"/>
+      <c r="C98" s="13"/>
     </row>
     <row r="99" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B99" s="4" t="s">
+      <c r="B99" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C99" s="5"/>
+      <c r="C99" s="13"/>
     </row>
     <row r="100" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A100" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B100" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C100" s="9" t="s">
+      <c r="B100" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C100" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A101" s="3"/>
-      <c r="B101" s="10"/>
-      <c r="C101" s="11"/>
+      <c r="B101" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="C101" s="7" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="102" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A102" s="3"/>
-      <c r="B102" s="12"/>
-      <c r="C102" s="13"/>
+      <c r="B102" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C102" s="9" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="103" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A103" s="2"/>
-      <c r="B103" s="12"/>
-      <c r="C103" s="14"/>
+      <c r="B103" s="8"/>
+      <c r="C103" s="10" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="104" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A104" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B104" s="4"/>
-      <c r="C104" s="5"/>
+      <c r="B104" s="12"/>
+      <c r="C104" s="13"/>
     </row>
     <row r="105" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A105" s="15"/>
-      <c r="B105" s="15"/>
-      <c r="C105" s="15"/>
+      <c r="A105" s="11"/>
+      <c r="B105" s="11"/>
+      <c r="C105" s="11"/>
     </row>
     <row r="106" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A106" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B106" s="4" t="s">
+      <c r="B106" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="C106" s="5"/>
+      <c r="C106" s="13"/>
     </row>
     <row r="107" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A107" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B107" s="4" t="s">
+      <c r="B107" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="C107" s="5"/>
+      <c r="C107" s="13"/>
     </row>
     <row r="108" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A108" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B108" s="7" t="s">
+      <c r="B108" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C108" s="8"/>
+      <c r="C108" s="15"/>
     </row>
     <row r="109" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A109" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B109" s="4" t="s">
+      <c r="B109" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="C109" s="5"/>
+      <c r="C109" s="13"/>
     </row>
     <row r="110" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A110" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B110" s="4" t="s">
+      <c r="B110" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="C110" s="5"/>
+      <c r="C110" s="13"/>
     </row>
     <row r="111" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A111" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B111" s="4"/>
-      <c r="C111" s="5"/>
+      <c r="B111" s="12"/>
+      <c r="C111" s="13"/>
     </row>
     <row r="112" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A112" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B112" s="4" t="s">
+      <c r="B112" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="C112" s="5"/>
+      <c r="C112" s="13"/>
     </row>
     <row r="113" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A113" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B113" s="4"/>
-      <c r="C113" s="5"/>
+      <c r="B113" s="12"/>
+      <c r="C113" s="13"/>
     </row>
     <row r="114" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A114" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B114" s="4" t="s">
+      <c r="B114" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="C114" s="5"/>
+      <c r="C114" s="13"/>
     </row>
     <row r="115" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A115" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B115" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C115" s="9" t="s">
+      <c r="B115" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C115" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A116" s="3"/>
-      <c r="B116" s="10" t="s">
+      <c r="B116" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="C116" s="11" t="s">
+      <c r="C116" s="7" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A117" s="3"/>
-      <c r="B117" s="12" t="s">
+      <c r="B117" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="C117" s="13"/>
+      <c r="C117" s="9"/>
     </row>
     <row r="118" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A118" s="2"/>
-      <c r="B118" s="12"/>
-      <c r="C118" s="14"/>
+      <c r="B118" s="8"/>
+      <c r="C118" s="10"/>
     </row>
     <row r="119" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A119" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B119" s="4"/>
-      <c r="C119" s="5"/>
+      <c r="B119" s="12"/>
+      <c r="C119" s="13"/>
     </row>
     <row r="120" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A120" s="15"/>
-      <c r="B120" s="15"/>
-      <c r="C120" s="15"/>
+      <c r="A120" s="11"/>
+      <c r="B120" s="11"/>
+      <c r="C120" s="11"/>
     </row>
     <row r="121" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A121" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B121" s="4" t="s">
+      <c r="B121" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C121" s="5"/>
+      <c r="C121" s="13"/>
     </row>
     <row r="122" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A122" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B122" s="4" t="s">
+      <c r="B122" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C122" s="5"/>
+      <c r="C122" s="13"/>
     </row>
     <row r="123" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A123" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B123" s="7" t="s">
+      <c r="B123" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="C123" s="8"/>
+      <c r="C123" s="15"/>
     </row>
     <row r="124" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A124" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B124" s="4" t="s">
+      <c r="B124" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="C124" s="5"/>
+      <c r="C124" s="13"/>
     </row>
     <row r="125" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A125" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B125" s="4" t="s">
+      <c r="B125" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C125" s="5"/>
+      <c r="C125" s="13"/>
     </row>
     <row r="126" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A126" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B126" s="4" t="s">
+      <c r="B126" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="C126" s="5"/>
+      <c r="C126" s="13"/>
     </row>
     <row r="127" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A127" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B127" s="16" t="s">
+      <c r="B127" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="C127" s="5"/>
+      <c r="C127" s="13"/>
     </row>
     <row r="128" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A128" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B128" s="4"/>
-      <c r="C128" s="5"/>
+      <c r="B128" s="12"/>
+      <c r="C128" s="13"/>
     </row>
     <row r="129" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A129" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B129" s="4" t="s">
+      <c r="B129" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C129" s="5"/>
+      <c r="C129" s="13"/>
     </row>
     <row r="130" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A130" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B130" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C130" s="9" t="s">
+      <c r="B130" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C130" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A131" s="3"/>
-      <c r="B131" s="10" t="s">
+      <c r="B131" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="C131" s="11" t="s">
+      <c r="C131" s="7" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A132" s="3"/>
-      <c r="B132" s="12" t="s">
+      <c r="B132" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="C132" s="13" t="s">
+      <c r="C132" s="9" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A133" s="2"/>
-      <c r="B133" s="12"/>
-      <c r="C133" s="14"/>
+      <c r="B133" s="8"/>
+      <c r="C133" s="10"/>
     </row>
     <row r="134" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A134" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B134" s="4"/>
-      <c r="C134" s="5"/>
+      <c r="B134" s="12"/>
+      <c r="C134" s="13"/>
     </row>
     <row r="135" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A135" s="15"/>
-      <c r="B135" s="15"/>
-      <c r="C135" s="15"/>
+      <c r="A135" s="11"/>
+      <c r="B135" s="11"/>
+      <c r="C135" s="11"/>
     </row>
     <row r="136" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A136" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B136" s="4" t="s">
+      <c r="B136" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C136" s="5"/>
+      <c r="C136" s="13"/>
     </row>
     <row r="137" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A137" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B137" s="4" t="s">
+      <c r="B137" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="C137" s="5"/>
+      <c r="C137" s="13"/>
     </row>
     <row r="138" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A138" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B138" s="7" t="s">
+      <c r="B138" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="C138" s="8"/>
+      <c r="C138" s="15"/>
     </row>
     <row r="139" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A139" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B139" s="4"/>
-      <c r="C139" s="5"/>
+      <c r="B139" s="12"/>
+      <c r="C139" s="13"/>
     </row>
     <row r="140" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A140" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B140" s="4" t="s">
+      <c r="B140" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="C140" s="5"/>
+      <c r="C140" s="13"/>
     </row>
     <row r="141" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A141" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B141" s="4"/>
-      <c r="C141" s="5"/>
+      <c r="B141" s="12"/>
+      <c r="C141" s="13"/>
     </row>
     <row r="142" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A142" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B142" s="4" t="s">
+      <c r="B142" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C142" s="5"/>
+      <c r="C142" s="13"/>
     </row>
     <row r="143" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A143" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B143" s="4"/>
-      <c r="C143" s="5"/>
+      <c r="B143" s="12"/>
+      <c r="C143" s="13"/>
     </row>
     <row r="144" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A144" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B144" s="4" t="s">
+      <c r="B144" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="C144" s="5"/>
+      <c r="C144" s="13"/>
     </row>
     <row r="145" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A145" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B145" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C145" s="9" t="s">
+      <c r="B145" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C145" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A146" s="3"/>
-      <c r="B146" s="10"/>
-      <c r="C146" s="11"/>
+      <c r="B146" s="6"/>
+      <c r="C146" s="7"/>
     </row>
     <row r="147" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A147" s="3"/>
-      <c r="B147" s="12"/>
-      <c r="C147" s="13"/>
+      <c r="B147" s="8"/>
+      <c r="C147" s="9"/>
     </row>
     <row r="148" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A148" s="2"/>
-      <c r="B148" s="12"/>
-      <c r="C148" s="14"/>
+      <c r="B148" s="8"/>
+      <c r="C148" s="10"/>
     </row>
     <row r="149" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A149" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B149" s="4"/>
-      <c r="C149" s="5"/>
+      <c r="B149" s="12"/>
+      <c r="C149" s="13"/>
     </row>
     <row r="150" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A150" s="15"/>
-      <c r="B150" s="15"/>
-      <c r="C150" s="15"/>
+      <c r="A150" s="11"/>
+      <c r="B150" s="11"/>
+      <c r="C150" s="11"/>
     </row>
     <row r="151" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A151" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B151" s="4" t="s">
+      <c r="B151" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="C151" s="5"/>
+      <c r="C151" s="13"/>
     </row>
     <row r="152" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A152" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B152" s="4" t="s">
+      <c r="B152" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="C152" s="5"/>
+      <c r="C152" s="13"/>
     </row>
     <row r="153" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A153" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B153" s="7" t="s">
+      <c r="B153" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="C153" s="8"/>
+      <c r="C153" s="15"/>
     </row>
     <row r="154" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A154" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B154" s="4" t="s">
+      <c r="B154" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="C154" s="5"/>
+      <c r="C154" s="13"/>
     </row>
     <row r="155" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A155" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B155" s="4" t="s">
+      <c r="B155" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C155" s="5"/>
+      <c r="C155" s="13"/>
     </row>
     <row r="156" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A156" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B156" s="4" t="s">
+      <c r="B156" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C156" s="5"/>
+      <c r="C156" s="13"/>
     </row>
     <row r="157" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A157" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B157" s="4" t="s">
+      <c r="B157" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="C157" s="5"/>
+      <c r="C157" s="13"/>
     </row>
     <row r="158" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A158" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B158" s="4"/>
-      <c r="C158" s="5"/>
+      <c r="B158" s="12"/>
+      <c r="C158" s="13"/>
     </row>
     <row r="159" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A159" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B159" s="4" t="s">
+      <c r="B159" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C159" s="5"/>
+      <c r="C159" s="13"/>
     </row>
     <row r="160" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A160" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B160" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C160" s="9" t="s">
+      <c r="B160" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C160" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="161" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A161" s="3"/>
-      <c r="B161" s="10" t="s">
+      <c r="B161" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="C161" s="11" t="s">
+      <c r="C161" s="7" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="162" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A162" s="3"/>
-      <c r="B162" s="12" t="s">
+      <c r="B162" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="C162" s="13"/>
+      <c r="C162" s="9"/>
     </row>
     <row r="163" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A163" s="2"/>
-      <c r="B163" s="12"/>
-      <c r="C163" s="14"/>
+      <c r="B163" s="8"/>
+      <c r="C163" s="10"/>
     </row>
     <row r="164" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A164" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B164" s="4"/>
-      <c r="C164" s="5"/>
+      <c r="B164" s="12"/>
+      <c r="C164" s="13"/>
     </row>
     <row r="165" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A165" s="15"/>
-      <c r="B165" s="15"/>
-      <c r="C165" s="15"/>
+      <c r="A165" s="11"/>
+      <c r="B165" s="11"/>
+      <c r="C165" s="11"/>
     </row>
     <row r="166" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A166" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B166" s="4" t="s">
+      <c r="B166" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="C166" s="5"/>
-      <c r="D166" s="6" t="s">
+      <c r="C166" s="13"/>
+      <c r="D166" s="4" t="s">
         <v>156</v>
       </c>
     </row>
@@ -2447,490 +2492,500 @@
       <c r="A167" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B167" s="4" t="s">
+      <c r="B167" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="C167" s="5"/>
+      <c r="C167" s="13"/>
     </row>
     <row r="168" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A168" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B168" s="17" t="s">
+      <c r="B168" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="C168" s="8"/>
+      <c r="C168" s="15"/>
     </row>
     <row r="169" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A169" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B169" s="4"/>
-      <c r="C169" s="5"/>
+      <c r="B169" s="12"/>
+      <c r="C169" s="13"/>
     </row>
     <row r="170" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A170" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B170" s="4" t="s">
+      <c r="B170" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C170" s="5"/>
+      <c r="C170" s="13"/>
     </row>
     <row r="171" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A171" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B171" s="4" t="s">
+      <c r="B171" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="C171" s="5"/>
+      <c r="C171" s="13"/>
     </row>
     <row r="172" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A172" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B172" s="4" t="s">
+      <c r="B172" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="C172" s="5"/>
+      <c r="C172" s="13"/>
     </row>
     <row r="173" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A173" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B173" s="4" t="s">
+      <c r="B173" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="C173" s="5"/>
+      <c r="C173" s="13"/>
     </row>
     <row r="174" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A174" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B174" s="4" t="s">
+      <c r="B174" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="C174" s="5"/>
+      <c r="C174" s="13"/>
     </row>
     <row r="175" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A175" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B175" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C175" s="9" t="s">
+      <c r="B175" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C175" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="176" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A176" s="3"/>
-      <c r="B176" s="10"/>
-      <c r="C176" s="11"/>
+      <c r="B176" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="C176" s="7" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="177" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A177" s="3"/>
-      <c r="B177" s="12"/>
-      <c r="C177" s="13"/>
+      <c r="B177" s="8"/>
+      <c r="C177" s="9" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="178" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A178" s="2"/>
-      <c r="B178" s="12"/>
-      <c r="C178" s="14"/>
+      <c r="B178" s="8"/>
+      <c r="C178" s="10" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="179" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A179" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B179" s="4"/>
-      <c r="C179" s="5"/>
+      <c r="B179" s="12"/>
+      <c r="C179" s="13"/>
     </row>
     <row r="180" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A180" s="15"/>
-      <c r="B180" s="15"/>
-      <c r="C180" s="15"/>
+      <c r="A180" s="11"/>
+      <c r="B180" s="11"/>
+      <c r="C180" s="11"/>
     </row>
     <row r="181" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A181" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B181" s="4" t="s">
+      <c r="B181" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="C181" s="5"/>
+      <c r="C181" s="13"/>
     </row>
     <row r="182" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A182" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B182" s="4" t="s">
+      <c r="B182" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="C182" s="5"/>
+      <c r="C182" s="13"/>
     </row>
     <row r="183" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A183" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B183" s="7" t="s">
+      <c r="B183" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C183" s="8"/>
+      <c r="C183" s="15"/>
     </row>
     <row r="184" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A184" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B184" s="4" t="s">
+      <c r="B184" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="C184" s="5"/>
+      <c r="C184" s="13"/>
     </row>
     <row r="185" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A185" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B185" s="4" t="s">
+      <c r="B185" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C185" s="5"/>
+      <c r="C185" s="13"/>
     </row>
     <row r="186" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A186" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B186" s="4" t="s">
+      <c r="B186" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C186" s="5"/>
+      <c r="C186" s="13"/>
     </row>
     <row r="187" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A187" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B187" s="4" t="s">
+      <c r="B187" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C187" s="5"/>
+      <c r="C187" s="13"/>
     </row>
     <row r="188" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A188" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B188" s="4"/>
-      <c r="C188" s="5"/>
+      <c r="B188" s="12"/>
+      <c r="C188" s="13"/>
     </row>
     <row r="189" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A189" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B189" s="4" t="s">
+      <c r="B189" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C189" s="5"/>
+      <c r="C189" s="13"/>
     </row>
     <row r="190" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A190" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B190" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C190" s="9" t="s">
+      <c r="B190" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C190" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A191" s="3"/>
-      <c r="B191" s="10" t="s">
+      <c r="B191" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="C191" s="11" t="s">
+      <c r="C191" s="7" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="192" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A192" s="3"/>
-      <c r="B192" s="12" t="s">
+      <c r="B192" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="C192" s="13" t="s">
+      <c r="C192" s="9" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A193" s="2"/>
-      <c r="B193" s="12"/>
-      <c r="C193" s="14"/>
+      <c r="B193" s="8"/>
+      <c r="C193" s="10"/>
     </row>
     <row r="194" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A194" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B194" s="4"/>
-      <c r="C194" s="5"/>
+      <c r="B194" s="12"/>
+      <c r="C194" s="13"/>
     </row>
     <row r="195" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A195" s="15"/>
-      <c r="B195" s="15"/>
-      <c r="C195" s="15"/>
+      <c r="A195" s="11"/>
+      <c r="B195" s="11"/>
+      <c r="C195" s="11"/>
     </row>
     <row r="196" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A196" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B196" s="4" t="s">
+      <c r="B196" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="C196" s="5"/>
+      <c r="C196" s="13"/>
     </row>
     <row r="197" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A197" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B197" s="4" t="s">
+      <c r="B197" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="C197" s="5"/>
+      <c r="C197" s="13"/>
     </row>
     <row r="198" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A198" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B198" s="7" t="s">
+      <c r="B198" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="C198" s="8"/>
+      <c r="C198" s="15"/>
     </row>
     <row r="199" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A199" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B199" s="4" t="s">
+      <c r="B199" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="C199" s="5"/>
+      <c r="C199" s="13"/>
     </row>
     <row r="200" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A200" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B200" s="4" t="s">
+      <c r="B200" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="C200" s="5"/>
+      <c r="C200" s="13"/>
     </row>
     <row r="201" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A201" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B201" s="4" t="s">
+      <c r="B201" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="C201" s="5"/>
+      <c r="C201" s="13"/>
     </row>
     <row r="202" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A202" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B202" s="4" t="s">
+      <c r="B202" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C202" s="5"/>
+      <c r="C202" s="13"/>
     </row>
     <row r="203" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A203" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B203" s="4"/>
-      <c r="C203" s="5"/>
+      <c r="B203" s="12"/>
+      <c r="C203" s="13"/>
     </row>
     <row r="204" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A204" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B204" s="4" t="s">
+      <c r="B204" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="C204" s="5"/>
+      <c r="C204" s="13"/>
     </row>
     <row r="205" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A205" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B205" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C205" s="9" t="s">
+      <c r="B205" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C205" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="206" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A206" s="3"/>
-      <c r="B206" s="10" t="s">
+      <c r="B206" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="C206" s="11" t="s">
+      <c r="C206" s="7" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="207" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A207" s="3"/>
-      <c r="B207" s="12" t="s">
+      <c r="B207" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="C207" s="13"/>
+      <c r="C207" s="9"/>
     </row>
     <row r="208" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A208" s="2"/>
-      <c r="B208" s="12"/>
-      <c r="C208" s="14"/>
+      <c r="B208" s="8"/>
+      <c r="C208" s="10"/>
     </row>
     <row r="209" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A209" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B209" s="4"/>
-      <c r="C209" s="5"/>
+      <c r="B209" s="12"/>
+      <c r="C209" s="13"/>
     </row>
     <row r="210" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A210" s="15"/>
-      <c r="B210" s="15"/>
-      <c r="C210" s="15"/>
+      <c r="A210" s="11"/>
+      <c r="B210" s="11"/>
+      <c r="C210" s="11"/>
     </row>
     <row r="211" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A211" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B211" s="4" t="s">
+      <c r="B211" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="C211" s="5"/>
+      <c r="C211" s="13"/>
     </row>
     <row r="212" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A212" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B212" s="4" t="s">
+      <c r="B212" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="C212" s="5"/>
+      <c r="C212" s="13"/>
     </row>
     <row r="213" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A213" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B213" s="7" t="s">
+      <c r="B213" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="C213" s="8"/>
+      <c r="C213" s="15"/>
     </row>
     <row r="214" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A214" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B214" s="4" t="s">
+      <c r="B214" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="C214" s="5"/>
+      <c r="C214" s="13"/>
     </row>
     <row r="215" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A215" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B215" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C215" s="5"/>
+      <c r="B215" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="C215" s="13"/>
     </row>
     <row r="216" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A216" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B216" s="4" t="s">
+      <c r="B216" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="C216" s="5"/>
+      <c r="C216" s="13"/>
     </row>
     <row r="217" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A217" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B217" s="4" t="s">
+      <c r="B217" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="C217" s="5"/>
+      <c r="C217" s="13"/>
     </row>
     <row r="218" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A218" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B218" s="4"/>
-      <c r="C218" s="5"/>
+      <c r="B218" s="12"/>
+      <c r="C218" s="13"/>
     </row>
     <row r="219" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A219" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B219" s="4" t="s">
+      <c r="B219" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="C219" s="5"/>
+      <c r="C219" s="13"/>
     </row>
     <row r="220" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A220" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B220" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C220" s="9" t="s">
+      <c r="B220" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C220" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="221" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A221" s="3"/>
-      <c r="B221" s="10" t="s">
+      <c r="B221" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="C221" s="11" t="s">
+      <c r="C221" s="7" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="222" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A222" s="3"/>
-      <c r="B222" s="12" t="s">
+      <c r="B222" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="C222" s="13"/>
+      <c r="C222" s="9" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="223" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A223" s="2"/>
-      <c r="B223" s="12"/>
-      <c r="C223" s="14"/>
+      <c r="B223" s="8"/>
+      <c r="C223" s="10"/>
     </row>
     <row r="224" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A224" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B224" s="4"/>
-      <c r="C224" s="5"/>
+      <c r="B224" s="12"/>
+      <c r="C224" s="13"/>
     </row>
     <row r="225" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A225" s="15"/>
-      <c r="B225" s="15"/>
-      <c r="C225" s="15"/>
+      <c r="A225" s="11"/>
+      <c r="B225" s="11"/>
+      <c r="C225" s="11"/>
     </row>
     <row r="226" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A226" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B226" s="4" t="s">
+      <c r="B226" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="C226" s="5"/>
-      <c r="D226" s="6" t="s">
+      <c r="C226" s="13"/>
+      <c r="D226" s="4" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2938,1218 +2993,1024 @@
       <c r="A227" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B227" s="4" t="s">
+      <c r="B227" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C227" s="5"/>
+      <c r="C227" s="13"/>
     </row>
     <row r="228" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A228" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B228" s="7" t="s">
+      <c r="B228" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="C228" s="8"/>
+      <c r="C228" s="15"/>
     </row>
     <row r="229" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A229" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B229" s="4" t="s">
+      <c r="B229" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="C229" s="5"/>
+      <c r="C229" s="13"/>
     </row>
     <row r="230" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A230" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B230" s="4" t="s">
+      <c r="B230" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="C230" s="5"/>
+      <c r="C230" s="13"/>
     </row>
     <row r="231" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A231" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B231" s="4"/>
-      <c r="C231" s="5"/>
+      <c r="B231" s="12"/>
+      <c r="C231" s="13"/>
     </row>
     <row r="232" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A232" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B232" s="4" t="s">
+      <c r="B232" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="C232" s="5"/>
+      <c r="C232" s="13"/>
     </row>
     <row r="233" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A233" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B233" s="4"/>
-      <c r="C233" s="5"/>
+      <c r="B233" s="12"/>
+      <c r="C233" s="13"/>
     </row>
     <row r="234" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A234" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B234" s="4" t="s">
+      <c r="B234" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="C234" s="5"/>
+      <c r="C234" s="13"/>
     </row>
     <row r="235" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A235" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B235" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C235" s="9" t="s">
+      <c r="B235" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C235" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="236" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A236" s="3"/>
-      <c r="B236" s="10" t="s">
+      <c r="B236" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="C236" s="11" t="s">
+      <c r="C236" s="7" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="237" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A237" s="3"/>
-      <c r="B237" s="12" t="s">
+      <c r="B237" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="C237" s="13" t="s">
+      <c r="C237" s="9" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="238" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A238" s="2"/>
-      <c r="B238" s="12"/>
-      <c r="C238" s="14"/>
+      <c r="B238" s="8"/>
+      <c r="C238" s="10"/>
     </row>
     <row r="239" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A239" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B239" s="4"/>
-      <c r="C239" s="5"/>
+      <c r="B239" s="12"/>
+      <c r="C239" s="13"/>
     </row>
     <row r="240" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A240" s="15"/>
-      <c r="B240" s="15"/>
-      <c r="C240" s="15"/>
+      <c r="A240" s="11"/>
+      <c r="B240" s="11"/>
+      <c r="C240" s="11"/>
     </row>
     <row r="241" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A241" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B241" s="4" t="s">
+      <c r="B241" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="C241" s="5"/>
+      <c r="C241" s="13"/>
     </row>
     <row r="242" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A242" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B242" s="4" t="s">
+      <c r="B242" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="C242" s="5"/>
+      <c r="C242" s="13"/>
     </row>
     <row r="243" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A243" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B243" s="7" t="s">
+      <c r="B243" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="C243" s="8"/>
+      <c r="C243" s="15"/>
     </row>
     <row r="244" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A244" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B244" s="4" t="s">
+      <c r="B244" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="C244" s="5"/>
+      <c r="C244" s="13"/>
     </row>
     <row r="245" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A245" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B245" s="4" t="s">
+      <c r="B245" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="C245" s="5"/>
+      <c r="C245" s="13"/>
     </row>
     <row r="246" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A246" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B246" s="4" t="s">
+      <c r="B246" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C246" s="5"/>
+      <c r="C246" s="13"/>
     </row>
     <row r="247" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A247" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B247" s="4" t="s">
+      <c r="B247" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="C247" s="5"/>
+      <c r="C247" s="13"/>
     </row>
     <row r="248" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A248" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B248" s="4" t="s">
+      <c r="B248" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="C248" s="5"/>
+      <c r="C248" s="13"/>
     </row>
     <row r="249" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A249" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B249" s="4" t="s">
+      <c r="B249" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="C249" s="5"/>
+      <c r="C249" s="13"/>
     </row>
     <row r="250" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A250" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B250" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C250" s="9" t="s">
+      <c r="B250" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C250" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="251" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A251" s="3"/>
-      <c r="B251" s="10" t="s">
+      <c r="B251" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="C251" s="11"/>
+      <c r="C251" s="7"/>
     </row>
     <row r="252" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A252" s="3"/>
-      <c r="B252" s="12"/>
-      <c r="C252" s="13"/>
+      <c r="B252" s="8"/>
+      <c r="C252" s="9"/>
     </row>
     <row r="253" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A253" s="2"/>
-      <c r="B253" s="12"/>
-      <c r="C253" s="14"/>
+      <c r="B253" s="8"/>
+      <c r="C253" s="10"/>
     </row>
     <row r="254" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A254" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B254" s="4"/>
-      <c r="C254" s="5"/>
+      <c r="B254" s="12"/>
+      <c r="C254" s="13"/>
     </row>
     <row r="255" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A255" s="15"/>
-      <c r="B255" s="15"/>
-      <c r="C255" s="15"/>
+      <c r="A255" s="11"/>
+      <c r="B255" s="11"/>
+      <c r="C255" s="11"/>
     </row>
     <row r="256" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A256" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B256" s="4" t="s">
+      <c r="B256" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="C256" s="5"/>
+      <c r="C256" s="13"/>
     </row>
     <row r="257" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A257" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B257" s="4" t="s">
+      <c r="B257" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="C257" s="5"/>
+      <c r="C257" s="13"/>
     </row>
     <row r="258" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A258" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B258" s="7" t="s">
+      <c r="B258" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="C258" s="8"/>
+      <c r="C258" s="15"/>
     </row>
     <row r="259" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A259" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B259" s="4"/>
-      <c r="C259" s="5"/>
+      <c r="B259" s="12"/>
+      <c r="C259" s="13"/>
     </row>
     <row r="260" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A260" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B260" s="4" t="s">
+      <c r="B260" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="C260" s="5"/>
+      <c r="C260" s="13"/>
     </row>
     <row r="261" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A261" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B261" s="4" t="s">
+      <c r="B261" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="C261" s="5"/>
+      <c r="C261" s="13"/>
     </row>
     <row r="262" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A262" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B262" s="4" t="s">
+      <c r="B262" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="C262" s="5"/>
+      <c r="C262" s="13"/>
     </row>
     <row r="263" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A263" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B263" s="4"/>
-      <c r="C263" s="5"/>
+      <c r="B263" s="12"/>
+      <c r="C263" s="13"/>
     </row>
     <row r="264" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A264" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B264" s="4" t="s">
+      <c r="B264" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="C264" s="5"/>
+      <c r="C264" s="13"/>
     </row>
     <row r="265" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A265" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B265" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C265" s="9" t="s">
+      <c r="B265" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C265" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="266" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A266" s="3"/>
-      <c r="B266" s="10"/>
-      <c r="C266" s="11"/>
+      <c r="B266" s="6"/>
+      <c r="C266" s="7"/>
     </row>
     <row r="267" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A267" s="3"/>
-      <c r="B267" s="12"/>
-      <c r="C267" s="13"/>
+      <c r="B267" s="8"/>
+      <c r="C267" s="9"/>
     </row>
     <row r="268" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A268" s="2"/>
-      <c r="B268" s="12"/>
-      <c r="C268" s="14"/>
+      <c r="B268" s="8"/>
+      <c r="C268" s="10"/>
     </row>
     <row r="269" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A269" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B269" s="4"/>
-      <c r="C269" s="5"/>
+      <c r="B269" s="12"/>
+      <c r="C269" s="13"/>
     </row>
     <row r="270" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A270" s="15"/>
-      <c r="B270" s="15"/>
-      <c r="C270" s="15"/>
+      <c r="A270" s="11"/>
+      <c r="B270" s="11"/>
+      <c r="C270" s="11"/>
     </row>
     <row r="271" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A271" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B271" s="4" t="s">
+      <c r="B271" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="C271" s="5"/>
+      <c r="C271" s="13"/>
     </row>
     <row r="272" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A272" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B272" s="4" t="s">
+      <c r="B272" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="C272" s="5"/>
+      <c r="C272" s="13"/>
     </row>
     <row r="273" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A273" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B273" s="7" t="s">
+      <c r="B273" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="C273" s="8"/>
+      <c r="C273" s="15"/>
     </row>
     <row r="274" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A274" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B274" s="4" t="s">
+      <c r="B274" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="C274" s="5"/>
+      <c r="C274" s="13"/>
     </row>
     <row r="275" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A275" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B275" s="4" t="s">
+      <c r="B275" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="C275" s="5"/>
+      <c r="C275" s="13"/>
     </row>
     <row r="276" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A276" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B276" s="4" t="s">
+      <c r="B276" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="C276" s="5"/>
+      <c r="C276" s="13"/>
     </row>
     <row r="277" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A277" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B277" s="4" t="s">
+      <c r="B277" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="C277" s="5"/>
+      <c r="C277" s="13"/>
     </row>
     <row r="278" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A278" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B278" s="4" t="s">
+      <c r="B278" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="C278" s="5"/>
+      <c r="C278" s="13"/>
     </row>
     <row r="279" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A279" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B279" s="4" t="s">
+      <c r="B279" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="C279" s="5"/>
+      <c r="C279" s="13"/>
     </row>
     <row r="280" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A280" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B280" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C280" s="9" t="s">
+      <c r="B280" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C280" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="281" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A281" s="3"/>
-      <c r="B281" s="10" t="s">
+      <c r="B281" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="C281" s="11" t="s">
+      <c r="C281" s="7" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="282" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A282" s="3"/>
-      <c r="B282" s="12"/>
-      <c r="C282" s="13" t="s">
+      <c r="B282" s="8"/>
+      <c r="C282" s="9" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="283" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A283" s="2"/>
-      <c r="B283" s="12"/>
-      <c r="C283" s="14"/>
+      <c r="B283" s="8"/>
+      <c r="C283" s="10"/>
     </row>
     <row r="284" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A284" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B284" s="4"/>
-      <c r="C284" s="5"/>
+      <c r="B284" s="12"/>
+      <c r="C284" s="13"/>
     </row>
     <row r="285" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A285" s="15"/>
-      <c r="B285" s="15"/>
-      <c r="C285" s="15"/>
+      <c r="A285" s="11"/>
+      <c r="B285" s="11"/>
+      <c r="C285" s="11"/>
     </row>
     <row r="286" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A286" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B286" s="4" t="s">
+      <c r="B286" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="C286" s="5"/>
+      <c r="C286" s="13"/>
     </row>
     <row r="287" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A287" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B287" s="4" t="s">
+      <c r="B287" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="C287" s="5"/>
+      <c r="C287" s="13"/>
     </row>
     <row r="288" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A288" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B288" s="7" t="s">
+      <c r="B288" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="C288" s="8"/>
+      <c r="C288" s="15"/>
     </row>
     <row r="289" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A289" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B289" s="4"/>
-      <c r="C289" s="5"/>
+      <c r="B289" s="12"/>
+      <c r="C289" s="13"/>
     </row>
     <row r="290" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A290" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B290" s="4" t="s">
+      <c r="B290" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="C290" s="5"/>
+      <c r="C290" s="13"/>
     </row>
     <row r="291" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A291" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B291" s="4" t="s">
+      <c r="B291" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C291" s="5"/>
+      <c r="C291" s="13"/>
     </row>
     <row r="292" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A292" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B292" s="4" t="s">
+      <c r="B292" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="C292" s="5"/>
+      <c r="C292" s="13"/>
     </row>
     <row r="293" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A293" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B293" s="4"/>
-      <c r="C293" s="5"/>
+      <c r="B293" s="12"/>
+      <c r="C293" s="13"/>
     </row>
     <row r="294" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A294" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B294" s="4" t="s">
+      <c r="B294" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="C294" s="5"/>
+      <c r="C294" s="13"/>
     </row>
     <row r="295" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A295" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B295" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C295" s="9" t="s">
+      <c r="B295" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C295" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="296" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A296" s="3"/>
-      <c r="B296" s="10" t="s">
+      <c r="B296" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="C296" s="11"/>
+      <c r="C296" s="7"/>
     </row>
     <row r="297" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A297" s="3"/>
-      <c r="B297" s="12" t="s">
+      <c r="B297" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="C297" s="13"/>
+      <c r="C297" s="9"/>
     </row>
     <row r="298" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A298" s="2"/>
-      <c r="B298" s="12"/>
-      <c r="C298" s="14"/>
+      <c r="B298" s="8"/>
+      <c r="C298" s="10"/>
     </row>
     <row r="299" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A299" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B299" s="4"/>
-      <c r="C299" s="5"/>
+      <c r="B299" s="12"/>
+      <c r="C299" s="13"/>
     </row>
     <row r="300" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A300" s="15"/>
-      <c r="B300" s="15"/>
-      <c r="C300" s="15"/>
+      <c r="A300" s="11"/>
+      <c r="B300" s="11"/>
+      <c r="C300" s="11"/>
     </row>
     <row r="301" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A301" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B301" s="4" t="s">
+      <c r="B301" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="C301" s="5"/>
+      <c r="C301" s="13"/>
     </row>
     <row r="302" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A302" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B302" s="4"/>
-      <c r="C302" s="5"/>
+      <c r="B302" s="12"/>
+      <c r="C302" s="13"/>
     </row>
     <row r="303" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A303" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B303" s="7" t="s">
+      <c r="B303" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="C303" s="8"/>
+      <c r="C303" s="15"/>
     </row>
     <row r="304" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A304" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B304" s="4" t="s">
+      <c r="B304" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="C304" s="5"/>
+      <c r="C304" s="13"/>
     </row>
     <row r="305" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A305" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B305" s="4" t="s">
+      <c r="B305" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="C305" s="5"/>
+      <c r="C305" s="13"/>
     </row>
     <row r="306" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A306" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B306" s="4"/>
-      <c r="C306" s="5"/>
+      <c r="B306" s="12"/>
+      <c r="C306" s="13"/>
     </row>
     <row r="307" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A307" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B307" s="4" t="s">
+      <c r="B307" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="C307" s="5"/>
+      <c r="C307" s="13"/>
     </row>
     <row r="308" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A308" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B308" s="4"/>
-      <c r="C308" s="5"/>
+      <c r="B308" s="12"/>
+      <c r="C308" s="13"/>
     </row>
     <row r="309" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A309" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B309" s="4" t="s">
+      <c r="B309" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="C309" s="5"/>
+      <c r="C309" s="13"/>
     </row>
     <row r="310" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A310" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B310" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C310" s="9" t="s">
+      <c r="B310" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C310" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="311" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A311" s="3"/>
-      <c r="B311" s="10"/>
-      <c r="C311" s="11"/>
+      <c r="B311" s="6"/>
+      <c r="C311" s="7"/>
     </row>
     <row r="312" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A312" s="3"/>
-      <c r="B312" s="12"/>
-      <c r="C312" s="13"/>
+      <c r="B312" s="8"/>
+      <c r="C312" s="9"/>
     </row>
     <row r="313" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A313" s="2"/>
-      <c r="B313" s="12"/>
-      <c r="C313" s="14"/>
+      <c r="B313" s="8"/>
+      <c r="C313" s="10"/>
     </row>
     <row r="314" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A314" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B314" s="4"/>
-      <c r="C314" s="5"/>
+      <c r="B314" s="12"/>
+      <c r="C314" s="13"/>
     </row>
     <row r="315" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A315" s="15"/>
-      <c r="B315" s="15"/>
-      <c r="C315" s="15"/>
+      <c r="A315" s="11"/>
+      <c r="B315" s="11"/>
+      <c r="C315" s="11"/>
     </row>
     <row r="316" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A316" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B316" s="4"/>
-      <c r="C316" s="5"/>
+      <c r="B316" s="12"/>
+      <c r="C316" s="13"/>
     </row>
     <row r="317" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A317" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B317" s="4"/>
-      <c r="C317" s="5"/>
+      <c r="B317" s="12"/>
+      <c r="C317" s="13"/>
     </row>
     <row r="318" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A318" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B318" s="7"/>
-      <c r="C318" s="8"/>
+      <c r="B318" s="14"/>
+      <c r="C318" s="15"/>
     </row>
     <row r="319" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A319" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B319" s="4"/>
-      <c r="C319" s="5"/>
+      <c r="B319" s="12"/>
+      <c r="C319" s="13"/>
     </row>
     <row r="320" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A320" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B320" s="4"/>
-      <c r="C320" s="5"/>
+      <c r="B320" s="12"/>
+      <c r="C320" s="13"/>
     </row>
     <row r="321" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A321" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B321" s="4"/>
-      <c r="C321" s="5"/>
+      <c r="B321" s="12"/>
+      <c r="C321" s="13"/>
     </row>
     <row r="322" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A322" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B322" s="4"/>
-      <c r="C322" s="5"/>
+      <c r="B322" s="12"/>
+      <c r="C322" s="13"/>
     </row>
     <row r="323" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A323" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B323" s="4"/>
-      <c r="C323" s="5"/>
+      <c r="B323" s="12"/>
+      <c r="C323" s="13"/>
     </row>
     <row r="324" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A324" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B324" s="4"/>
-      <c r="C324" s="5"/>
+      <c r="B324" s="12"/>
+      <c r="C324" s="13"/>
     </row>
     <row r="325" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A325" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B325" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C325" s="9" t="s">
+      <c r="B325" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C325" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="326" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A326" s="3"/>
-      <c r="B326" s="10"/>
-      <c r="C326" s="11"/>
+      <c r="B326" s="6"/>
+      <c r="C326" s="7"/>
     </row>
     <row r="327" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A327" s="3"/>
-      <c r="B327" s="12"/>
-      <c r="C327" s="13"/>
+      <c r="B327" s="8"/>
+      <c r="C327" s="9"/>
     </row>
     <row r="328" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A328" s="2"/>
-      <c r="B328" s="12"/>
-      <c r="C328" s="14"/>
+      <c r="B328" s="8"/>
+      <c r="C328" s="10"/>
     </row>
     <row r="329" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A329" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B329" s="4"/>
-      <c r="C329" s="5"/>
+      <c r="B329" s="12"/>
+      <c r="C329" s="13"/>
     </row>
     <row r="330" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A330" s="15"/>
-      <c r="B330" s="15"/>
-      <c r="C330" s="15"/>
+      <c r="A330" s="11"/>
+      <c r="B330" s="11"/>
+      <c r="C330" s="11"/>
     </row>
     <row r="331" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A331" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B331" s="4"/>
-      <c r="C331" s="5"/>
+      <c r="B331" s="12"/>
+      <c r="C331" s="13"/>
     </row>
     <row r="332" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A332" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B332" s="4"/>
-      <c r="C332" s="5"/>
+      <c r="B332" s="12"/>
+      <c r="C332" s="13"/>
     </row>
     <row r="333" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A333" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B333" s="7"/>
-      <c r="C333" s="8"/>
+      <c r="B333" s="14"/>
+      <c r="C333" s="15"/>
     </row>
     <row r="334" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A334" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B334" s="4"/>
-      <c r="C334" s="5"/>
+      <c r="B334" s="12"/>
+      <c r="C334" s="13"/>
     </row>
     <row r="335" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A335" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B335" s="4"/>
-      <c r="C335" s="5"/>
+      <c r="B335" s="12"/>
+      <c r="C335" s="13"/>
     </row>
     <row r="336" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A336" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B336" s="4"/>
-      <c r="C336" s="5"/>
+      <c r="B336" s="12"/>
+      <c r="C336" s="13"/>
     </row>
     <row r="337" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A337" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B337" s="4"/>
-      <c r="C337" s="5"/>
+      <c r="B337" s="12"/>
+      <c r="C337" s="13"/>
     </row>
     <row r="338" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A338" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B338" s="4"/>
-      <c r="C338" s="5"/>
+      <c r="B338" s="12"/>
+      <c r="C338" s="13"/>
     </row>
     <row r="339" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A339" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B339" s="4"/>
-      <c r="C339" s="5"/>
+      <c r="B339" s="12"/>
+      <c r="C339" s="13"/>
     </row>
     <row r="340" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A340" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B340" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C340" s="9" t="s">
+      <c r="B340" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C340" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="341" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A341" s="3"/>
-      <c r="B341" s="10"/>
-      <c r="C341" s="11"/>
+      <c r="B341" s="6"/>
+      <c r="C341" s="7"/>
     </row>
     <row r="342" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A342" s="3"/>
-      <c r="B342" s="12"/>
-      <c r="C342" s="13"/>
+      <c r="B342" s="8"/>
+      <c r="C342" s="9"/>
     </row>
     <row r="343" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A343" s="2"/>
-      <c r="B343" s="12"/>
-      <c r="C343" s="14"/>
+      <c r="B343" s="8"/>
+      <c r="C343" s="10"/>
     </row>
     <row r="344" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A344" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B344" s="4"/>
-      <c r="C344" s="5"/>
+      <c r="B344" s="12"/>
+      <c r="C344" s="13"/>
     </row>
     <row r="345" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A345" s="15"/>
-      <c r="B345" s="15"/>
-      <c r="C345" s="15"/>
+      <c r="A345" s="11"/>
+      <c r="B345" s="11"/>
+      <c r="C345" s="11"/>
     </row>
     <row r="346" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A346" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B346" s="4"/>
-      <c r="C346" s="5"/>
+      <c r="B346" s="12"/>
+      <c r="C346" s="13"/>
     </row>
     <row r="347" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A347" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B347" s="4"/>
-      <c r="C347" s="5"/>
+      <c r="B347" s="12"/>
+      <c r="C347" s="13"/>
     </row>
     <row r="348" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A348" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B348" s="7"/>
-      <c r="C348" s="8"/>
+      <c r="B348" s="14"/>
+      <c r="C348" s="15"/>
     </row>
     <row r="349" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A349" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B349" s="4"/>
-      <c r="C349" s="5"/>
+      <c r="B349" s="12"/>
+      <c r="C349" s="13"/>
     </row>
     <row r="350" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A350" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B350" s="4"/>
-      <c r="C350" s="5"/>
+      <c r="B350" s="12"/>
+      <c r="C350" s="13"/>
     </row>
     <row r="351" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A351" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B351" s="4"/>
-      <c r="C351" s="5"/>
+      <c r="B351" s="12"/>
+      <c r="C351" s="13"/>
     </row>
     <row r="352" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A352" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B352" s="4"/>
-      <c r="C352" s="5"/>
+      <c r="B352" s="12"/>
+      <c r="C352" s="13"/>
     </row>
     <row r="353" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A353" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B353" s="4"/>
-      <c r="C353" s="5"/>
+      <c r="B353" s="12"/>
+      <c r="C353" s="13"/>
     </row>
     <row r="354" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A354" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B354" s="4"/>
-      <c r="C354" s="5"/>
+      <c r="B354" s="12"/>
+      <c r="C354" s="13"/>
     </row>
     <row r="355" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A355" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B355" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C355" s="9" t="s">
+      <c r="B355" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C355" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="356" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A356" s="3"/>
-      <c r="B356" s="10"/>
-      <c r="C356" s="11"/>
+      <c r="B356" s="6"/>
+      <c r="C356" s="7"/>
     </row>
     <row r="357" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A357" s="3"/>
-      <c r="B357" s="12"/>
-      <c r="C357" s="13"/>
+      <c r="B357" s="8"/>
+      <c r="C357" s="9"/>
     </row>
     <row r="358" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A358" s="2"/>
-      <c r="B358" s="12"/>
-      <c r="C358" s="14"/>
+      <c r="B358" s="8"/>
+      <c r="C358" s="10"/>
     </row>
     <row r="359" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A359" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B359" s="4"/>
-      <c r="C359" s="5"/>
+      <c r="B359" s="12"/>
+      <c r="C359" s="13"/>
     </row>
   </sheetData>
   <sortState ref="B113:B120">
     <sortCondition ref="B113"/>
   </sortState>
   <mergeCells count="240">
-    <mergeCell ref="B351:C351"/>
-    <mergeCell ref="B352:C352"/>
-    <mergeCell ref="B353:C353"/>
-    <mergeCell ref="B354:C354"/>
-    <mergeCell ref="B359:C359"/>
-    <mergeCell ref="B346:C346"/>
-    <mergeCell ref="B347:C347"/>
-    <mergeCell ref="B348:C348"/>
-    <mergeCell ref="B349:C349"/>
-    <mergeCell ref="B350:C350"/>
-    <mergeCell ref="B336:C336"/>
-    <mergeCell ref="B337:C337"/>
-    <mergeCell ref="B338:C338"/>
-    <mergeCell ref="B339:C339"/>
-    <mergeCell ref="B344:C344"/>
-    <mergeCell ref="B331:C331"/>
-    <mergeCell ref="B332:C332"/>
-    <mergeCell ref="B333:C333"/>
-    <mergeCell ref="B334:C334"/>
-    <mergeCell ref="B335:C335"/>
-    <mergeCell ref="B321:C321"/>
-    <mergeCell ref="B322:C322"/>
-    <mergeCell ref="B323:C323"/>
-    <mergeCell ref="B324:C324"/>
-    <mergeCell ref="B329:C329"/>
-    <mergeCell ref="B316:C316"/>
-    <mergeCell ref="B317:C317"/>
-    <mergeCell ref="B318:C318"/>
-    <mergeCell ref="B319:C319"/>
-    <mergeCell ref="B320:C320"/>
-    <mergeCell ref="B306:C306"/>
-    <mergeCell ref="B307:C307"/>
-    <mergeCell ref="B308:C308"/>
-    <mergeCell ref="B309:C309"/>
-    <mergeCell ref="B314:C314"/>
-    <mergeCell ref="B301:C301"/>
-    <mergeCell ref="B302:C302"/>
-    <mergeCell ref="B303:C303"/>
-    <mergeCell ref="B304:C304"/>
-    <mergeCell ref="B305:C305"/>
-    <mergeCell ref="B291:C291"/>
-    <mergeCell ref="B292:C292"/>
-    <mergeCell ref="B293:C293"/>
-    <mergeCell ref="B294:C294"/>
-    <mergeCell ref="B299:C299"/>
-    <mergeCell ref="B286:C286"/>
-    <mergeCell ref="B287:C287"/>
-    <mergeCell ref="B288:C288"/>
-    <mergeCell ref="B289:C289"/>
-    <mergeCell ref="B290:C290"/>
-    <mergeCell ref="B276:C276"/>
-    <mergeCell ref="B277:C277"/>
-    <mergeCell ref="B278:C278"/>
-    <mergeCell ref="B279:C279"/>
-    <mergeCell ref="B284:C284"/>
-    <mergeCell ref="B271:C271"/>
-    <mergeCell ref="B272:C272"/>
-    <mergeCell ref="B273:C273"/>
-    <mergeCell ref="B274:C274"/>
-    <mergeCell ref="B275:C275"/>
-    <mergeCell ref="B261:C261"/>
-    <mergeCell ref="B262:C262"/>
-    <mergeCell ref="B263:C263"/>
-    <mergeCell ref="B264:C264"/>
-    <mergeCell ref="B269:C269"/>
-    <mergeCell ref="B256:C256"/>
-    <mergeCell ref="B257:C257"/>
-    <mergeCell ref="B258:C258"/>
-    <mergeCell ref="B259:C259"/>
-    <mergeCell ref="B260:C260"/>
-    <mergeCell ref="B246:C246"/>
-    <mergeCell ref="B247:C247"/>
-    <mergeCell ref="B248:C248"/>
-    <mergeCell ref="B249:C249"/>
-    <mergeCell ref="B254:C254"/>
-    <mergeCell ref="B241:C241"/>
-    <mergeCell ref="B242:C242"/>
-    <mergeCell ref="B243:C243"/>
-    <mergeCell ref="B244:C244"/>
-    <mergeCell ref="B245:C245"/>
-    <mergeCell ref="B231:C231"/>
-    <mergeCell ref="B232:C232"/>
-    <mergeCell ref="B233:C233"/>
-    <mergeCell ref="B234:C234"/>
-    <mergeCell ref="B239:C239"/>
-    <mergeCell ref="B226:C226"/>
-    <mergeCell ref="B227:C227"/>
-    <mergeCell ref="B228:C228"/>
-    <mergeCell ref="B229:C229"/>
-    <mergeCell ref="B230:C230"/>
-    <mergeCell ref="B216:C216"/>
-    <mergeCell ref="B217:C217"/>
-    <mergeCell ref="B218:C218"/>
-    <mergeCell ref="B219:C219"/>
-    <mergeCell ref="B224:C224"/>
-    <mergeCell ref="B211:C211"/>
-    <mergeCell ref="B212:C212"/>
-    <mergeCell ref="B213:C213"/>
-    <mergeCell ref="B214:C214"/>
-    <mergeCell ref="B215:C215"/>
-    <mergeCell ref="B201:C201"/>
-    <mergeCell ref="B202:C202"/>
-    <mergeCell ref="B203:C203"/>
-    <mergeCell ref="B204:C204"/>
-    <mergeCell ref="B209:C209"/>
-    <mergeCell ref="B196:C196"/>
-    <mergeCell ref="B197:C197"/>
-    <mergeCell ref="B198:C198"/>
-    <mergeCell ref="B199:C199"/>
-    <mergeCell ref="B200:C200"/>
-    <mergeCell ref="B186:C186"/>
-    <mergeCell ref="B187:C187"/>
-    <mergeCell ref="B188:C188"/>
-    <mergeCell ref="B189:C189"/>
-    <mergeCell ref="B194:C194"/>
-    <mergeCell ref="B181:C181"/>
-    <mergeCell ref="B182:C182"/>
-    <mergeCell ref="B183:C183"/>
-    <mergeCell ref="B184:C184"/>
-    <mergeCell ref="B185:C185"/>
-    <mergeCell ref="B171:C171"/>
-    <mergeCell ref="B172:C172"/>
-    <mergeCell ref="B173:C173"/>
-    <mergeCell ref="B174:C174"/>
-    <mergeCell ref="B179:C179"/>
-    <mergeCell ref="B166:C166"/>
-    <mergeCell ref="B167:C167"/>
-    <mergeCell ref="B168:C168"/>
-    <mergeCell ref="B169:C169"/>
-    <mergeCell ref="B170:C170"/>
-    <mergeCell ref="B156:C156"/>
-    <mergeCell ref="B157:C157"/>
-    <mergeCell ref="B158:C158"/>
-    <mergeCell ref="B159:C159"/>
-    <mergeCell ref="B164:C164"/>
-    <mergeCell ref="B151:C151"/>
-    <mergeCell ref="B152:C152"/>
-    <mergeCell ref="B153:C153"/>
-    <mergeCell ref="B154:C154"/>
-    <mergeCell ref="B155:C155"/>
-    <mergeCell ref="B141:C141"/>
-    <mergeCell ref="B142:C142"/>
-    <mergeCell ref="B143:C143"/>
-    <mergeCell ref="B144:C144"/>
-    <mergeCell ref="B149:C149"/>
-    <mergeCell ref="B136:C136"/>
-    <mergeCell ref="B137:C137"/>
-    <mergeCell ref="B138:C138"/>
-    <mergeCell ref="B139:C139"/>
-    <mergeCell ref="B140:C140"/>
-    <mergeCell ref="B126:C126"/>
-    <mergeCell ref="B127:C127"/>
-    <mergeCell ref="B128:C128"/>
-    <mergeCell ref="B129:C129"/>
-    <mergeCell ref="B134:C134"/>
-    <mergeCell ref="B121:C121"/>
-    <mergeCell ref="B122:C122"/>
-    <mergeCell ref="B123:C123"/>
-    <mergeCell ref="B124:C124"/>
-    <mergeCell ref="B125:C125"/>
-    <mergeCell ref="B111:C111"/>
-    <mergeCell ref="B112:C112"/>
-    <mergeCell ref="B113:C113"/>
-    <mergeCell ref="B114:C114"/>
-    <mergeCell ref="B119:C119"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="B99:C99"/>
     <mergeCell ref="B52:C52"/>
     <mergeCell ref="B53:C53"/>
     <mergeCell ref="B54:C54"/>
@@ -4172,18 +4033,212 @@
     <mergeCell ref="B80:C80"/>
     <mergeCell ref="B81:C81"/>
     <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="B119:C119"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="B126:C126"/>
+    <mergeCell ref="B127:C127"/>
+    <mergeCell ref="B128:C128"/>
+    <mergeCell ref="B129:C129"/>
+    <mergeCell ref="B134:C134"/>
+    <mergeCell ref="B121:C121"/>
+    <mergeCell ref="B122:C122"/>
+    <mergeCell ref="B123:C123"/>
+    <mergeCell ref="B124:C124"/>
+    <mergeCell ref="B125:C125"/>
+    <mergeCell ref="B141:C141"/>
+    <mergeCell ref="B142:C142"/>
+    <mergeCell ref="B143:C143"/>
+    <mergeCell ref="B144:C144"/>
+    <mergeCell ref="B149:C149"/>
+    <mergeCell ref="B136:C136"/>
+    <mergeCell ref="B137:C137"/>
+    <mergeCell ref="B138:C138"/>
+    <mergeCell ref="B139:C139"/>
+    <mergeCell ref="B140:C140"/>
+    <mergeCell ref="B156:C156"/>
+    <mergeCell ref="B157:C157"/>
+    <mergeCell ref="B158:C158"/>
+    <mergeCell ref="B159:C159"/>
+    <mergeCell ref="B164:C164"/>
+    <mergeCell ref="B151:C151"/>
+    <mergeCell ref="B152:C152"/>
+    <mergeCell ref="B153:C153"/>
+    <mergeCell ref="B154:C154"/>
+    <mergeCell ref="B155:C155"/>
+    <mergeCell ref="B171:C171"/>
+    <mergeCell ref="B172:C172"/>
+    <mergeCell ref="B173:C173"/>
+    <mergeCell ref="B174:C174"/>
+    <mergeCell ref="B179:C179"/>
+    <mergeCell ref="B166:C166"/>
+    <mergeCell ref="B167:C167"/>
+    <mergeCell ref="B168:C168"/>
+    <mergeCell ref="B169:C169"/>
+    <mergeCell ref="B170:C170"/>
+    <mergeCell ref="B186:C186"/>
+    <mergeCell ref="B187:C187"/>
+    <mergeCell ref="B188:C188"/>
+    <mergeCell ref="B189:C189"/>
+    <mergeCell ref="B194:C194"/>
+    <mergeCell ref="B181:C181"/>
+    <mergeCell ref="B182:C182"/>
+    <mergeCell ref="B183:C183"/>
+    <mergeCell ref="B184:C184"/>
+    <mergeCell ref="B185:C185"/>
+    <mergeCell ref="B201:C201"/>
+    <mergeCell ref="B202:C202"/>
+    <mergeCell ref="B203:C203"/>
+    <mergeCell ref="B204:C204"/>
+    <mergeCell ref="B209:C209"/>
+    <mergeCell ref="B196:C196"/>
+    <mergeCell ref="B197:C197"/>
+    <mergeCell ref="B198:C198"/>
+    <mergeCell ref="B199:C199"/>
+    <mergeCell ref="B200:C200"/>
+    <mergeCell ref="B216:C216"/>
+    <mergeCell ref="B217:C217"/>
+    <mergeCell ref="B218:C218"/>
+    <mergeCell ref="B219:C219"/>
+    <mergeCell ref="B224:C224"/>
+    <mergeCell ref="B211:C211"/>
+    <mergeCell ref="B212:C212"/>
+    <mergeCell ref="B213:C213"/>
+    <mergeCell ref="B214:C214"/>
+    <mergeCell ref="B215:C215"/>
+    <mergeCell ref="B231:C231"/>
+    <mergeCell ref="B232:C232"/>
+    <mergeCell ref="B233:C233"/>
+    <mergeCell ref="B234:C234"/>
+    <mergeCell ref="B239:C239"/>
+    <mergeCell ref="B226:C226"/>
+    <mergeCell ref="B227:C227"/>
+    <mergeCell ref="B228:C228"/>
+    <mergeCell ref="B229:C229"/>
+    <mergeCell ref="B230:C230"/>
+    <mergeCell ref="B246:C246"/>
+    <mergeCell ref="B247:C247"/>
+    <mergeCell ref="B248:C248"/>
+    <mergeCell ref="B249:C249"/>
+    <mergeCell ref="B254:C254"/>
+    <mergeCell ref="B241:C241"/>
+    <mergeCell ref="B242:C242"/>
+    <mergeCell ref="B243:C243"/>
+    <mergeCell ref="B244:C244"/>
+    <mergeCell ref="B245:C245"/>
+    <mergeCell ref="B261:C261"/>
+    <mergeCell ref="B262:C262"/>
+    <mergeCell ref="B263:C263"/>
+    <mergeCell ref="B264:C264"/>
+    <mergeCell ref="B269:C269"/>
+    <mergeCell ref="B256:C256"/>
+    <mergeCell ref="B257:C257"/>
+    <mergeCell ref="B258:C258"/>
+    <mergeCell ref="B259:C259"/>
+    <mergeCell ref="B260:C260"/>
+    <mergeCell ref="B276:C276"/>
+    <mergeCell ref="B277:C277"/>
+    <mergeCell ref="B278:C278"/>
+    <mergeCell ref="B279:C279"/>
+    <mergeCell ref="B284:C284"/>
+    <mergeCell ref="B271:C271"/>
+    <mergeCell ref="B272:C272"/>
+    <mergeCell ref="B273:C273"/>
+    <mergeCell ref="B274:C274"/>
+    <mergeCell ref="B275:C275"/>
+    <mergeCell ref="B291:C291"/>
+    <mergeCell ref="B292:C292"/>
+    <mergeCell ref="B293:C293"/>
+    <mergeCell ref="B294:C294"/>
+    <mergeCell ref="B299:C299"/>
+    <mergeCell ref="B286:C286"/>
+    <mergeCell ref="B287:C287"/>
+    <mergeCell ref="B288:C288"/>
+    <mergeCell ref="B289:C289"/>
+    <mergeCell ref="B290:C290"/>
+    <mergeCell ref="B306:C306"/>
+    <mergeCell ref="B307:C307"/>
+    <mergeCell ref="B308:C308"/>
+    <mergeCell ref="B309:C309"/>
+    <mergeCell ref="B314:C314"/>
+    <mergeCell ref="B301:C301"/>
+    <mergeCell ref="B302:C302"/>
+    <mergeCell ref="B303:C303"/>
+    <mergeCell ref="B304:C304"/>
+    <mergeCell ref="B305:C305"/>
+    <mergeCell ref="B321:C321"/>
+    <mergeCell ref="B322:C322"/>
+    <mergeCell ref="B323:C323"/>
+    <mergeCell ref="B324:C324"/>
+    <mergeCell ref="B329:C329"/>
+    <mergeCell ref="B316:C316"/>
+    <mergeCell ref="B317:C317"/>
+    <mergeCell ref="B318:C318"/>
+    <mergeCell ref="B319:C319"/>
+    <mergeCell ref="B320:C320"/>
+    <mergeCell ref="B336:C336"/>
+    <mergeCell ref="B337:C337"/>
+    <mergeCell ref="B338:C338"/>
+    <mergeCell ref="B339:C339"/>
+    <mergeCell ref="B344:C344"/>
+    <mergeCell ref="B331:C331"/>
+    <mergeCell ref="B332:C332"/>
+    <mergeCell ref="B333:C333"/>
+    <mergeCell ref="B334:C334"/>
+    <mergeCell ref="B335:C335"/>
+    <mergeCell ref="B351:C351"/>
+    <mergeCell ref="B352:C352"/>
+    <mergeCell ref="B353:C353"/>
+    <mergeCell ref="B354:C354"/>
+    <mergeCell ref="B359:C359"/>
+    <mergeCell ref="B346:C346"/>
+    <mergeCell ref="B347:C347"/>
+    <mergeCell ref="B348:C348"/>
+    <mergeCell ref="B349:C349"/>
+    <mergeCell ref="B350:C350"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
